--- a/doc/SUMS.xlsx
+++ b/doc/SUMS.xlsx
@@ -309,34 +309,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,34 +636,34 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
@@ -687,64 +687,64 @@
         <v>4</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="11">
+      <c r="H6" s="15">
         <v>1</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
@@ -760,30 +760,30 @@
       <c r="L9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="10"/>
+      <c r="N9" s="18"/>
       <c r="O9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="10"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="10" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="7">
         <v>1</v>
       </c>
@@ -799,291 +799,381 @@
       <c r="L10" s="7">
         <v>4</v>
       </c>
-      <c r="M10" s="10">
-        <v>2</v>
-      </c>
-      <c r="N10" s="10"/>
+      <c r="M10" s="18">
+        <v>2</v>
+      </c>
+      <c r="N10" s="18"/>
       <c r="O10" s="7">
         <v>8</v>
       </c>
-      <c r="P10" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="10"/>
+      <c r="P10" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="10" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
       <c r="K11" s="7">
         <v>2</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="10">
-        <v>2</v>
-      </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="10"/>
+      <c r="L11" s="7">
+        <v>4</v>
+      </c>
+      <c r="M11" s="18">
+        <v>2</v>
+      </c>
+      <c r="N11" s="18"/>
+      <c r="O11" s="7">
+        <v>16</v>
+      </c>
+      <c r="P11" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="10" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
       <c r="K12" s="7">
         <v>8</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="10">
+      <c r="L12" s="7">
+        <v>4</v>
+      </c>
+      <c r="M12" s="18">
         <v>8</v>
       </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="10">
+      <c r="N12" s="18"/>
+      <c r="O12" s="7">
+        <v>36</v>
+      </c>
+      <c r="P12" s="18">
         <v>8</v>
       </c>
-      <c r="Q12" s="10"/>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="10" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
       <c r="K13" s="7">
         <v>8</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="10">
+      <c r="L13" s="7">
+        <v>3</v>
+      </c>
+      <c r="M13" s="18">
         <v>8</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="10">
+      <c r="N13" s="18"/>
+      <c r="O13" s="7">
+        <v>65</v>
+      </c>
+      <c r="P13" s="18">
         <v>8</v>
       </c>
-      <c r="Q13" s="10"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="11" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
       <c r="K14" s="7">
         <v>100</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="10">
-        <v>100</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="10"/>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="18">
+        <v>100</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="O14" s="7">
+        <v>172</v>
+      </c>
+      <c r="P14" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="11" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="7">
+        <v>4</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
       <c r="K15" s="7">
         <v>100</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="10">
-        <v>100</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="10"/>
+      <c r="L15" s="7">
+        <v>5</v>
+      </c>
+      <c r="M15" s="18">
+        <v>100</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="O15" s="7">
+        <v>249</v>
+      </c>
+      <c r="P15" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="11" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7</v>
+      </c>
+      <c r="J16" s="7">
+        <v>6</v>
+      </c>
       <c r="K16" s="7">
         <v>100</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="10">
-        <v>100</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="10"/>
+      <c r="L16" s="7">
+        <v>4</v>
+      </c>
+      <c r="M16" s="18">
+        <v>100</v>
+      </c>
+      <c r="N16" s="18"/>
+      <c r="O16" s="7">
+        <v>349</v>
+      </c>
+      <c r="P16" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="7">
+        <v>8</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6</v>
+      </c>
+      <c r="J17" s="7">
+        <v>2</v>
+      </c>
       <c r="K17" s="7">
         <v>100</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="10">
-        <v>100</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="10"/>
+      <c r="L17" s="7">
+        <v>4</v>
+      </c>
+      <c r="M17" s="18">
+        <v>100</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="7">
+        <v>480</v>
+      </c>
+      <c r="P17" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="11" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="7">
+        <v>6</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
       <c r="K18" s="7">
         <v>100</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="10">
-        <v>100</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="10"/>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="18">
+        <v>100</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="7">
+        <v>572</v>
+      </c>
+      <c r="P18" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="11" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="7">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
       <c r="K19" s="7">
         <v>100</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="10">
-        <v>100</v>
-      </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="10"/>
+      <c r="L19" s="7">
+        <v>2</v>
+      </c>
+      <c r="M19" s="18">
+        <v>100</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="O19" s="7">
+        <v>699</v>
+      </c>
+      <c r="P19" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="11" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1091,28 +1181,28 @@
         <v>100</v>
       </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="10">
-        <v>100</v>
-      </c>
-      <c r="N20" s="10"/>
+      <c r="M20" s="18">
+        <v>100</v>
+      </c>
+      <c r="N20" s="18"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="10"/>
+      <c r="P20" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="18"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="11" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1120,28 +1210,28 @@
         <v>100</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="10">
-        <v>100</v>
-      </c>
-      <c r="N21" s="10"/>
+      <c r="M21" s="18">
+        <v>100</v>
+      </c>
+      <c r="N21" s="18"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="10"/>
+      <c r="P21" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1149,28 +1239,28 @@
         <v>100</v>
       </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="10">
-        <v>100</v>
-      </c>
-      <c r="N22" s="10"/>
+      <c r="M22" s="18">
+        <v>100</v>
+      </c>
+      <c r="N22" s="18"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="10"/>
+      <c r="P22" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="11" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="12"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1178,28 +1268,28 @@
         <v>100</v>
       </c>
       <c r="L23" s="7"/>
-      <c r="M23" s="10">
-        <v>100</v>
-      </c>
-      <c r="N23" s="10"/>
+      <c r="M23" s="18">
+        <v>100</v>
+      </c>
+      <c r="N23" s="18"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="10"/>
+      <c r="P23" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="18"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="11" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1207,26 +1297,26 @@
         <v>20</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="11">
+      <c r="M24" s="15">
         <v>20</v>
       </c>
-      <c r="N24" s="12"/>
+      <c r="N24" s="16"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="11">
+      <c r="P24" s="15">
         <v>20</v>
       </c>
-      <c r="Q24" s="12"/>
+      <c r="Q24" s="16"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="11" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1234,15 +1324,15 @@
         <v>1000</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="11">
+      <c r="M25" s="15">
         <v>1000</v>
       </c>
-      <c r="N25" s="12"/>
+      <c r="N25" s="16"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="11">
+      <c r="P25" s="15">
         <v>1000</v>
       </c>
-      <c r="Q25" s="12"/>
+      <c r="Q25" s="16"/>
     </row>
     <row r="26" spans="1:17">
       <c r="E26" s="8"/>
@@ -1330,20 +1420,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A24:E25"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="M12:N12"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="C6:E6"/>
@@ -1351,59 +1485,15 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A24:E25"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/SUMS.xlsx
+++ b/doc/SUMS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>TSPi Size Summary: Form SUMDI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,14 @@
   </si>
   <si>
     <t>LOC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张笑燕</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -309,9 +317,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,19 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,35 +643,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
@@ -687,64 +695,68 @@
         <v>4</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
+      <c r="H5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="15">
+      <c r="H6" s="11">
         <v>1</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
@@ -760,30 +772,30 @@
       <c r="L9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="7">
         <v>1</v>
       </c>
@@ -799,30 +811,31 @@
       <c r="L10" s="7">
         <v>4</v>
       </c>
-      <c r="M10" s="18">
-        <v>2</v>
-      </c>
-      <c r="N10" s="18"/>
+      <c r="M10" s="10">
+        <v>2</v>
+      </c>
+      <c r="N10" s="10"/>
       <c r="O10" s="7">
-        <v>8</v>
-      </c>
-      <c r="P10" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="18"/>
+        <f>SUM(H10:N10)</f>
+        <v>14</v>
+      </c>
+      <c r="P10" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="18" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="7">
         <v>1</v>
       </c>
@@ -838,30 +851,31 @@
       <c r="L11" s="7">
         <v>4</v>
       </c>
-      <c r="M11" s="18">
-        <v>2</v>
-      </c>
-      <c r="N11" s="18"/>
+      <c r="M11" s="10">
+        <v>2</v>
+      </c>
+      <c r="N11" s="10"/>
       <c r="O11" s="7">
-        <v>16</v>
-      </c>
-      <c r="P11" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="18"/>
+        <f t="shared" ref="O11:O25" si="0">SUM(H11:N11)</f>
+        <v>14</v>
+      </c>
+      <c r="P11" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="18" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="7">
         <v>1</v>
       </c>
@@ -877,30 +891,31 @@
       <c r="L12" s="7">
         <v>4</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="10">
         <v>8</v>
       </c>
-      <c r="N12" s="18"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="7">
-        <v>36</v>
-      </c>
-      <c r="P12" s="18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="P12" s="10">
         <v>8</v>
       </c>
-      <c r="Q12" s="18"/>
+      <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="18" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="7">
         <v>4</v>
       </c>
@@ -916,30 +931,31 @@
       <c r="L13" s="7">
         <v>3</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="10">
         <v>8</v>
       </c>
-      <c r="N13" s="18"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="7">
-        <v>65</v>
-      </c>
-      <c r="P13" s="18">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="P13" s="10">
         <v>8</v>
       </c>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="7">
         <v>4</v>
       </c>
@@ -955,30 +971,31 @@
       <c r="L14" s="7">
         <v>1</v>
       </c>
-      <c r="M14" s="18">
-        <v>100</v>
-      </c>
-      <c r="N14" s="18"/>
+      <c r="M14" s="10">
+        <v>100</v>
+      </c>
+      <c r="N14" s="10"/>
       <c r="O14" s="7">
-        <v>172</v>
-      </c>
-      <c r="P14" s="18">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="18"/>
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="P14" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="15" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="7">
         <v>4</v>
       </c>
@@ -994,30 +1011,31 @@
       <c r="L15" s="7">
         <v>5</v>
       </c>
-      <c r="M15" s="18">
-        <v>100</v>
-      </c>
-      <c r="N15" s="18"/>
+      <c r="M15" s="10">
+        <v>100</v>
+      </c>
+      <c r="N15" s="10"/>
       <c r="O15" s="7">
-        <v>249</v>
-      </c>
-      <c r="P15" s="18">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="18"/>
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="P15" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="7">
         <v>8</v>
       </c>
@@ -1033,30 +1051,31 @@
       <c r="L16" s="7">
         <v>4</v>
       </c>
-      <c r="M16" s="18">
-        <v>100</v>
-      </c>
-      <c r="N16" s="18"/>
+      <c r="M16" s="10">
+        <v>100</v>
+      </c>
+      <c r="N16" s="10"/>
       <c r="O16" s="7">
-        <v>349</v>
-      </c>
-      <c r="P16" s="18">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="18"/>
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="P16" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="15" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="7">
         <v>8</v>
       </c>
@@ -1072,30 +1091,31 @@
       <c r="L17" s="7">
         <v>4</v>
       </c>
-      <c r="M17" s="18">
-        <v>100</v>
-      </c>
-      <c r="N17" s="18"/>
+      <c r="M17" s="10">
+        <v>100</v>
+      </c>
+      <c r="N17" s="10"/>
       <c r="O17" s="7">
-        <v>480</v>
-      </c>
-      <c r="P17" s="18">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="18"/>
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="P17" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="15" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="7">
         <v>6</v>
       </c>
@@ -1111,30 +1131,31 @@
       <c r="L18" s="7">
         <v>1</v>
       </c>
-      <c r="M18" s="18">
-        <v>100</v>
-      </c>
-      <c r="N18" s="18"/>
+      <c r="M18" s="10">
+        <v>100</v>
+      </c>
+      <c r="N18" s="10"/>
       <c r="O18" s="7">
-        <v>572</v>
-      </c>
-      <c r="P18" s="18">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="18"/>
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="P18" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="15" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="7">
         <v>4</v>
       </c>
@@ -1150,189 +1171,262 @@
       <c r="L19" s="7">
         <v>2</v>
       </c>
-      <c r="M19" s="18">
-        <v>100</v>
-      </c>
-      <c r="N19" s="18"/>
+      <c r="M19" s="10">
+        <v>100</v>
+      </c>
+      <c r="N19" s="10"/>
       <c r="O19" s="7">
-        <v>699</v>
-      </c>
-      <c r="P19" s="18">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="18"/>
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="P19" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="15" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="7">
+        <v>14</v>
+      </c>
+      <c r="I20" s="7">
+        <v>23</v>
+      </c>
+      <c r="J20" s="7">
+        <v>3</v>
+      </c>
       <c r="K20" s="7">
         <v>100</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="18">
-        <v>100</v>
-      </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="18">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="18"/>
+      <c r="L20" s="7">
+        <v>4</v>
+      </c>
+      <c r="M20" s="10">
+        <v>100</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="7">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="P20" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="15" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="7">
+        <v>5</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>5</v>
+      </c>
       <c r="K21" s="7">
         <v>100</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="18">
-        <v>100</v>
-      </c>
-      <c r="N21" s="18"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="18">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="18"/>
+      <c r="L21" s="7">
+        <v>23</v>
+      </c>
+      <c r="M21" s="10">
+        <v>100</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="7">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="P21" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="15" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="7">
+        <v>6</v>
+      </c>
+      <c r="J22" s="7">
+        <v>2</v>
+      </c>
       <c r="K22" s="7">
         <v>100</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="18">
-        <v>100</v>
-      </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="18">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="18"/>
+      <c r="L22" s="7">
+        <v>2</v>
+      </c>
+      <c r="M22" s="10">
+        <v>100</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="7">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="P22" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="10"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="15" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5</v>
+      </c>
+      <c r="J23" s="7">
+        <v>3</v>
+      </c>
       <c r="K23" s="7">
         <v>100</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="18">
-        <v>100</v>
-      </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="18">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="18"/>
+      <c r="L23" s="7">
+        <v>3</v>
+      </c>
+      <c r="M23" s="10">
+        <v>100</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="7">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="P23" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="15" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="7">
+        <f>SUM(H10:H13)</f>
+        <v>7</v>
+      </c>
+      <c r="I24" s="7">
+        <f>SUM(I10:I13)</f>
+        <v>15</v>
+      </c>
+      <c r="J24" s="7">
+        <f>SUM(J10:J13)</f>
+        <v>11</v>
+      </c>
       <c r="K24" s="7">
         <v>20</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="15">
+      <c r="L24" s="7">
+        <v>4</v>
+      </c>
+      <c r="M24" s="11">
         <v>20</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="15">
+      <c r="N24" s="12"/>
+      <c r="O24" s="7">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="P24" s="11">
         <v>20</v>
       </c>
-      <c r="Q24" s="16"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="15" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="7">
+        <f>SUM(H14:H23)</f>
+        <v>60</v>
+      </c>
+      <c r="I25" s="7">
+        <f>SUM(I14:I23)</f>
+        <v>60</v>
+      </c>
+      <c r="J25" s="7">
+        <f>SUM(J14:J23)</f>
+        <v>27</v>
+      </c>
       <c r="K25" s="7">
         <v>1000</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="15">
+      <c r="L25" s="7">
+        <v>3</v>
+      </c>
+      <c r="M25" s="11">
         <v>1000</v>
       </c>
-      <c r="N25" s="16"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="15">
+      <c r="N25" s="12"/>
+      <c r="O25" s="7">
+        <f t="shared" si="0"/>
+        <v>2150</v>
+      </c>
+      <c r="P25" s="11">
         <v>1000</v>
       </c>
-      <c r="Q25" s="16"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:17">
       <c r="E26" s="8"/>
@@ -1420,41 +1514,32 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A24:E25"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F18:G18"/>
@@ -1464,36 +1549,45 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A24:E25"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P20:Q20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
